--- a/teaching/traditional_assets/database/data/mauritius/mauritius_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/mauritius/mauritius_bank_money_center.xlsx
@@ -591,13 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06719</v>
+        <v>0.0552</v>
       </c>
       <c r="E2">
-        <v>0.0005000000000000143</v>
-      </c>
-      <c r="F2">
-        <v>0.19</v>
+        <v>0.04395</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0009118846191973177</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0007572577858223682</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>312.01</v>
+        <v>171.78</v>
       </c>
       <c r="L2">
-        <v>0.4394507042253522</v>
+        <v>0.3107452966714905</v>
       </c>
       <c r="M2">
-        <v>97.31999999999999</v>
+        <v>52.08</v>
       </c>
       <c r="N2">
-        <v>0.03770339377033937</v>
+        <v>0.03054545454545455</v>
       </c>
       <c r="O2">
-        <v>0.3119130797089836</v>
+        <v>0.3031784841075795</v>
       </c>
       <c r="P2">
-        <v>97.31999999999999</v>
+        <v>52.08</v>
       </c>
       <c r="Q2">
-        <v>0.03770339377033937</v>
+        <v>0.03054545454545455</v>
       </c>
       <c r="R2">
-        <v>0.3119130797089836</v>
+        <v>0.3031784841075795</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,67 +639,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1765.5</v>
+        <v>1999.7</v>
       </c>
       <c r="V2">
-        <v>0.6839841933984193</v>
+        <v>1.172844574780059</v>
       </c>
       <c r="W2">
-        <v>0.1325379609544469</v>
+        <v>0.05702970297029702</v>
       </c>
       <c r="X2">
-        <v>0.06333829543364723</v>
+        <v>0.06937372615854384</v>
       </c>
       <c r="Y2">
-        <v>0.06919966552079963</v>
+        <v>-0.01234402318824682</v>
       </c>
       <c r="Z2">
-        <v>0.2795107433364559</v>
+        <v>0.1785645067510821</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05472074484625859</v>
+        <v>0.04717868226609809</v>
       </c>
       <c r="AC2">
-        <v>-0.05418510631530237</v>
+        <v>-0.04717868226609809</v>
       </c>
       <c r="AD2">
-        <v>2534.7</v>
+        <v>2500</v>
       </c>
       <c r="AE2">
-        <v>10.81280960184952</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2545.512809601849</v>
+        <v>2500</v>
       </c>
       <c r="AG2">
-        <v>780.0128096018493</v>
+        <v>500.3</v>
       </c>
       <c r="AH2">
-        <v>0.4965194860992299</v>
+        <v>0.5945303210463734</v>
       </c>
       <c r="AI2">
-        <v>0.5151490924953112</v>
+        <v>0.5129362522825663</v>
       </c>
       <c r="AJ2">
-        <v>0.2320629052030315</v>
+        <v>0.2268625583820795</v>
       </c>
       <c r="AK2">
-        <v>0.2456104488411706</v>
+        <v>0.174065827012734</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>902.0284697508896</v>
-      </c>
-      <c r="AP2">
-        <v>277.5846297515478</v>
       </c>
     </row>
     <row r="3">
@@ -721,6 +712,12 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.092</v>
+      </c>
+      <c r="E3">
+        <v>0.04219999999999999</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -734,85 +731,82 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>6.11</v>
+        <v>2.88</v>
       </c>
       <c r="L3">
-        <v>0.3703030303030303</v>
+        <v>0.2526315789473684</v>
       </c>
       <c r="M3">
-        <v>1.52</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.02835820895522388</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.248772504091653</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>1.52</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02835820895522388</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.248772504091653</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>48.3</v>
+        <v>52.9</v>
       </c>
       <c r="V3">
-        <v>0.9011194029850745</v>
+        <v>1.574404761904762</v>
       </c>
       <c r="W3">
-        <v>0.1325379609544469</v>
+        <v>0.05702970297029702</v>
       </c>
       <c r="X3">
-        <v>0.05626385833700519</v>
+        <v>0.05194855475759563</v>
       </c>
       <c r="Y3">
-        <v>0.07627410261744168</v>
+        <v>0.005081148212701392</v>
       </c>
       <c r="Z3">
-        <v>-0.4653130287648055</v>
+        <v>0.456</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05249898699141766</v>
+        <v>0.04716336072554066</v>
       </c>
       <c r="AC3">
-        <v>-0.05249898699141766</v>
+        <v>-0.04716336072554066</v>
       </c>
       <c r="AD3">
-        <v>22.8</v>
+        <v>16.6</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>22.8</v>
+        <v>16.6</v>
       </c>
       <c r="AG3">
-        <v>-25.5</v>
+        <v>-36.3</v>
       </c>
       <c r="AH3">
-        <v>0.2984293193717277</v>
+        <v>0.3306772908366534</v>
       </c>
       <c r="AI3">
-        <v>0.3110504774897681</v>
+        <v>0.2597809076682316</v>
       </c>
       <c r="AJ3">
-        <v>-0.9074733096085407</v>
+        <v>13.44444444444446</v>
       </c>
       <c r="AK3">
-        <v>-1.02</v>
+        <v>-3.3</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -829,7 +823,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SBM Holdings Ltd (MUSE:SBMH.N0000)</t>
+          <t>MCB Group Limited (MUSE:MCBG.N0000)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -838,13 +832,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.00438</v>
+        <v>0.0552</v>
       </c>
       <c r="E4">
-        <v>-0.172</v>
-      </c>
-      <c r="F4">
-        <v>0.19</v>
+        <v>0.0457</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -853,34 +844,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.003833262756838932</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.003174864385178171</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>35.8</v>
+        <v>184.9</v>
       </c>
       <c r="L4">
-        <v>0.2119597394908229</v>
+        <v>0.4547466797835711</v>
       </c>
       <c r="M4">
-        <v>24.7</v>
+        <v>45.6</v>
       </c>
       <c r="N4">
-        <v>0.05456151977026728</v>
+        <v>0.03172615320392402</v>
       </c>
       <c r="O4">
-        <v>0.6899441340782123</v>
+        <v>0.2466197944835046</v>
       </c>
       <c r="P4">
-        <v>24.7</v>
+        <v>45.6</v>
       </c>
       <c r="Q4">
-        <v>0.05456151977026728</v>
+        <v>0.03172615320392402</v>
       </c>
       <c r="R4">
-        <v>0.6899441340782123</v>
+        <v>0.2466197944835046</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -889,67 +880,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>318.3</v>
+        <v>1438.5</v>
       </c>
       <c r="V4">
-        <v>0.70311464546057</v>
+        <v>1.000834898768524</v>
       </c>
       <c r="W4">
-        <v>0.04950905822154612</v>
+        <v>0.1187692702980473</v>
       </c>
       <c r="X4">
-        <v>0.09782512052530012</v>
+        <v>0.06937372615854384</v>
       </c>
       <c r="Y4">
-        <v>-0.04831606230375401</v>
+        <v>0.04939554413950344</v>
       </c>
       <c r="Z4">
-        <v>0.168712255382261</v>
+        <v>0.2427607618365276</v>
       </c>
       <c r="AA4">
-        <v>0.0005356385309562245</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05472074484625859</v>
+        <v>0.04717868226609809</v>
       </c>
       <c r="AC4">
-        <v>-0.05418510631530237</v>
+        <v>-0.04717868226609809</v>
       </c>
       <c r="AD4">
-        <v>994.9</v>
+        <v>1691.1</v>
       </c>
       <c r="AE4">
-        <v>10.81280960184952</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1005.712809601849</v>
+        <v>1691.1</v>
       </c>
       <c r="AG4">
-        <v>687.4128096018494</v>
+        <v>252.5999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.6895940593640368</v>
+        <v>0.5405638665132336</v>
       </c>
       <c r="AI4">
-        <v>0.5830175892050207</v>
+        <v>0.5008292365100989</v>
       </c>
       <c r="AJ4">
-        <v>0.6029340288194007</v>
+        <v>0.1494763003728031</v>
       </c>
       <c r="AK4">
-        <v>0.488666062404317</v>
+        <v>0.1303338321036066</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>354.0569395017794</v>
-      </c>
-      <c r="AP4">
-        <v>244.6308930967436</v>
       </c>
     </row>
     <row r="5">
@@ -960,7 +945,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MCB Group Limited (MUSE:MCBG.N0000)</t>
+          <t>SBM Holdings Ltd (MUSE:SBMH.N0000)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -969,10 +954,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.13</v>
-      </c>
-      <c r="E5">
-        <v>0.173</v>
+        <v>0.0344</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -987,28 +969,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>270.1</v>
+        <v>-16</v>
       </c>
       <c r="L5">
-        <v>0.5148684712161647</v>
+        <v>-0.1186943620178041</v>
       </c>
       <c r="M5">
-        <v>71.09999999999999</v>
+        <v>6.48</v>
       </c>
       <c r="N5">
-        <v>0.03426671164875415</v>
+        <v>0.02768047842802222</v>
       </c>
       <c r="O5">
-        <v>0.2632358385783043</v>
+        <v>-0.405</v>
       </c>
       <c r="P5">
-        <v>71.09999999999999</v>
+        <v>6.48</v>
       </c>
       <c r="Q5">
-        <v>0.03426671164875415</v>
+        <v>0.02768047842802222</v>
       </c>
       <c r="R5">
-        <v>0.2632358385783043</v>
+        <v>-0.405</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1017,55 +999,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1398.9</v>
+        <v>508.3</v>
       </c>
       <c r="V5">
-        <v>0.6742011663212685</v>
+        <v>2.171294318667236</v>
       </c>
       <c r="W5">
-        <v>0.1846585082381897</v>
+        <v>-0.02224384818573613</v>
       </c>
       <c r="X5">
-        <v>0.06333829543364723</v>
+        <v>0.1257409445287726</v>
       </c>
       <c r="Y5">
-        <v>0.1213202128045424</v>
+        <v>-0.1479847927145087</v>
       </c>
       <c r="Z5">
-        <v>0.3331851381390917</v>
+        <v>0.09656852210043701</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.05502241277232061</v>
+        <v>0.050535527674282</v>
       </c>
       <c r="AC5">
-        <v>-0.05502241277232061</v>
+        <v>-0.050535527674282</v>
       </c>
       <c r="AD5">
-        <v>1517</v>
+        <v>792.3</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1517</v>
+        <v>792.3</v>
       </c>
       <c r="AG5">
-        <v>118.0999999999999</v>
+        <v>283.9999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.4223391519808458</v>
+        <v>0.7719212782540921</v>
       </c>
       <c r="AI5">
-        <v>0.4826598790964047</v>
+        <v>0.5527417329426537</v>
       </c>
       <c r="AJ5">
-        <v>0.05385316917464656</v>
+        <v>0.5481567265006755</v>
       </c>
       <c r="AK5">
-        <v>0.06771400722435636</v>
+        <v>0.3069938385039455</v>
       </c>
       <c r="AL5">
         <v>0</v>
